--- a/Planung/LED 16x16_Desgin/LED16x16_Desing.xlsx
+++ b/Planung/LED 16x16_Desgin/LED16x16_Desing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/Planung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\IMS-T\IP\Projekte\Projekt_DMHS_Wanduhr\Planung\LED 16x16_Desgin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1286" documentId="8_{31B5D03C-D738-45D5-9A44-606703A0B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BEA0470-CBF2-4D8B-96AD-A6CC18D199F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2334A61-9389-4CC9-A17B-587950472DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="1_(6)" sheetId="10" r:id="rId7"/>
     <sheet name="1_(5)" sheetId="8" r:id="rId8"/>
     <sheet name="Final Design" sheetId="12" r:id="rId9"/>
+    <sheet name="1_(7)" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -136,7 +137,27 @@
     <cellStyle name="cf3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF404040"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF2F2F2"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -162,6 +183,26 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF404040"/>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF2F2F2"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF404040"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -328,10 +369,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1012,10 +1049,10 @@
     <row r="39" spans="34:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1025,12 +1062,189 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E6499F-0A9D-4FF2-8B91-BF67F18AB3BD}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="122.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="122.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="122.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="122.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="122.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="122.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <conditionalFormatting sqref="B2:AF33">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1388,10 +1602,10 @@
     <row r="42" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1879,10 +2093,10 @@
     <row r="38" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2336,10 +2550,10 @@
     <row r="44" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2353,7 +2567,7 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
@@ -2676,10 +2890,10 @@
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3049,10 +3263,10 @@
     <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3066,8 +3280,8 @@
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,62 +3377,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3227,19 +3413,19 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3248,16 +3434,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3266,16 +3446,10 @@
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3290,30 +3464,30 @@
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -3323,58 +3497,49 @@
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X22" s="1" t="s">
@@ -3384,8 +3549,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -3395,78 +3560,75 @@
       <c r="F24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -3484,10 +3646,10 @@
     <row r="43" ht="122.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3858,10 +4020,10 @@
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3875,7 +4037,7 @@
   <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:BD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
@@ -4620,10 +4782,10 @@
     <row r="42" spans="33:56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
